--- a/results/DREAMER/PLV/dominance/vc_CNN_2layers_adaptive_maxpool_3_PLV.xlsx
+++ b/results/DREAMER/PLV/dominance/vc_CNN_2layers_adaptive_maxpool_3_PLV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\DREAMER\PLV\dominance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA6ED8-01D2-48DD-B0E7-BB312E3B336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37301030-A509-4877-9987-4116A80A21A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="60" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
@@ -135,6 +135,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -489,9 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
